--- a/docx/RPAA-by-Talking.im.xlsx
+++ b/docx/RPAA-by-Talking.im.xlsx
@@ -33,6 +33,52 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="A19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Non Microsoft Office  
+Applications</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">CSV, XML, JSON etc file types
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
   <si>
@@ -257,9 +303,6 @@
     <t>%loss</t>
   </si>
   <si>
-    <t>Implementation Time</t>
-  </si>
-  <si>
     <t>Unattended Automation</t>
   </si>
   <si>
@@ -347,6 +390,9 @@
   </si>
   <si>
     <t>Send your questions to Talk@Talking.im</t>
+  </si>
+  <si>
+    <t>Implementation Timeline</t>
   </si>
 </sst>
 </file>
@@ -357,7 +403,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="00000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
@@ -546,13 +592,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10.5"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Frutiger 45 Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
       <name val="Frutiger 45 Light"/>
@@ -571,8 +610,26 @@
       <name val="Frutiger 45 Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Frutiger 45 Light"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -647,6 +704,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
       </patternFill>
     </fill>
   </fills>
@@ -830,21 +892,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color theme="4"/>
-      </left>
-      <right style="dotted">
-        <color theme="4"/>
-      </right>
-      <top style="dotted">
-        <color theme="4"/>
-      </top>
-      <bottom style="dotted">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -971,8 +1018,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -994,69 +1050,58 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="20" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="20" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="23" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="23" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="22" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="22" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="20" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="20" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="20" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="24" xfId="20" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="10" borderId="25" xfId="20" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="25" xfId="19" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="20" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="10" borderId="24" xfId="20" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="24" xfId="19" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="21"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="21"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1092,14 +1137,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="9" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1107,10 +1149,51 @@
     <xf numFmtId="165" fontId="16" fillId="10" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="17" xfId="22" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="23">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29"/>
+    <cellStyle name="Accent5" xfId="22" builtinId="45"/>
     <cellStyle name="Bad" xfId="7" builtinId="27" hidden="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" hidden="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" hidden="1"/>
@@ -1494,11 +1577,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1509,199 +1592,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="32"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+    </row>
+    <row r="5" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="52" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="42"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="42"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="51" t="str">
+    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="34"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="46" t="str">
         <f>ROUND(calc!C9,1)&amp;" Days"</f>
         <v>20.4 Days</v>
       </c>
-      <c r="F7" s="51" t="str">
+      <c r="F7" s="46" t="str">
         <f>ROUND(calc!D9*100,1)&amp;" % Cost Efficiency"</f>
         <v>27.7 % Cost Efficiency</v>
       </c>
-      <c r="G7" s="51" t="str">
+      <c r="G7" s="46" t="str">
         <f>ROUND(calc!E9*100,1)&amp;" % Effectiveness"</f>
         <v>87.3 % Effectiveness</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="B8" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="F9" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="25" t="str">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="F9" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="24" t="str">
         <f>calc!E10</f>
         <v>Batch Monitoring</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="47">
         <v>5</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="48">
         <v>5</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="48">
         <v>5</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="48">
         <v>5</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="48">
         <v>5</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="48">
         <v>5</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <f>SUM('Robotics Assessment'!$B12:$G12)</f>
         <v>30</v>
       </c>
@@ -1710,22 +1793,22 @@
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="49">
         <v>60</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="50">
         <v>60</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="50">
         <v>60</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="50">
         <v>60</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="50">
         <v>60</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="50">
         <v>60</v>
       </c>
       <c r="H13" s="2">
@@ -1737,22 +1820,22 @@
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="51">
         <v>20</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="52">
         <v>20</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="52">
         <v>20</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="52">
         <v>5</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="52">
         <v>20</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="52">
         <v>20</v>
       </c>
       <c r="H14" s="1">
@@ -1764,22 +1847,22 @@
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="49">
         <v>20</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="50">
         <v>20</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="50">
         <v>20</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="50">
         <v>20</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="50">
         <v>20</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="50">
         <v>20</v>
       </c>
       <c r="H15" s="2">
@@ -1791,22 +1874,22 @@
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="51">
         <v>20</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="52">
         <v>20</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="52">
         <v>20</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="52">
         <v>20</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="52">
         <v>20</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="52">
         <v>20</v>
       </c>
       <c r="H16" s="1">
@@ -1815,37 +1898,37 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="29">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="B18" s="51">
+        <v>1</v>
+      </c>
+      <c r="C18" s="52">
+        <v>1</v>
+      </c>
+      <c r="D18" s="52">
+        <v>1</v>
+      </c>
+      <c r="E18" s="52">
+        <v>1</v>
+      </c>
+      <c r="F18" s="52">
+        <v>1</v>
+      </c>
+      <c r="G18" s="52">
         <v>1</v>
       </c>
       <c r="H18" s="1">
@@ -1857,22 +1940,22 @@
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="28">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="B19" s="49">
+        <v>1</v>
+      </c>
+      <c r="C19" s="50">
+        <v>1</v>
+      </c>
+      <c r="D19" s="50">
+        <v>1</v>
+      </c>
+      <c r="E19" s="50">
+        <v>1</v>
+      </c>
+      <c r="F19" s="50">
+        <v>1</v>
+      </c>
+      <c r="G19" s="50">
         <v>1</v>
       </c>
       <c r="H19" s="2">
@@ -1884,22 +1967,22 @@
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="29">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="B20" s="51">
+        <v>1</v>
+      </c>
+      <c r="C20" s="52">
+        <v>1</v>
+      </c>
+      <c r="D20" s="52">
+        <v>1</v>
+      </c>
+      <c r="E20" s="52">
+        <v>1</v>
+      </c>
+      <c r="F20" s="52">
+        <v>1</v>
+      </c>
+      <c r="G20" s="52">
         <v>1</v>
       </c>
       <c r="H20" s="1">
@@ -1911,22 +1994,22 @@
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="28">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="B21" s="49">
+        <v>1</v>
+      </c>
+      <c r="C21" s="50">
+        <v>1</v>
+      </c>
+      <c r="D21" s="50">
+        <v>1</v>
+      </c>
+      <c r="E21" s="50">
+        <v>1</v>
+      </c>
+      <c r="F21" s="50">
+        <v>1</v>
+      </c>
+      <c r="G21" s="50">
         <v>1</v>
       </c>
       <c r="H21" s="2">
@@ -1938,22 +2021,22 @@
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="52" t="s">
         <v>43</v>
       </c>
       <c r="H22" s="1">
@@ -1965,14 +2048,14 @@
       <c r="A23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="1">
         <f>COUNTIF(B23:G23,"=yes")</f>
         <v>1</v>
@@ -1982,18 +2065,18 @@
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="52" t="s">
         <v>44</v>
       </c>
       <c r="H24" s="1">
@@ -2005,18 +2088,18 @@
       <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="50" t="s">
         <v>43</v>
       </c>
       <c r="H25" s="1">
@@ -2025,37 +2108,37 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="28">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="B27" s="49">
+        <v>1</v>
+      </c>
+      <c r="C27" s="50">
+        <v>1</v>
+      </c>
+      <c r="D27" s="50">
+        <v>1</v>
+      </c>
+      <c r="E27" s="50">
+        <v>1</v>
+      </c>
+      <c r="F27" s="50">
         <v>6</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="50">
         <v>1</v>
       </c>
       <c r="H27" s="2">
@@ -2067,22 +2150,22 @@
       <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="29">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="B28" s="51">
+        <v>1</v>
+      </c>
+      <c r="C28" s="52">
+        <v>1</v>
+      </c>
+      <c r="D28" s="52">
         <v>4</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="E28" s="52">
+        <v>1</v>
+      </c>
+      <c r="F28" s="52">
+        <v>1</v>
+      </c>
+      <c r="G28" s="52">
         <v>1</v>
       </c>
       <c r="H28" s="1">
@@ -2094,22 +2177,22 @@
       <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="28">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="B29" s="49">
+        <v>1</v>
+      </c>
+      <c r="C29" s="50">
+        <v>1</v>
+      </c>
+      <c r="D29" s="50">
+        <v>1</v>
+      </c>
+      <c r="E29" s="50">
+        <v>1</v>
+      </c>
+      <c r="F29" s="50">
+        <v>1</v>
+      </c>
+      <c r="G29" s="50">
         <v>1</v>
       </c>
       <c r="H29" s="2">
@@ -2121,22 +2204,22 @@
       <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="31">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="B30" s="55">
+        <v>1</v>
+      </c>
+      <c r="C30" s="56">
+        <v>1</v>
+      </c>
+      <c r="D30" s="56">
+        <v>1</v>
+      </c>
+      <c r="E30" s="56">
         <v>3</v>
       </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F30" s="56">
+        <v>1</v>
+      </c>
+      <c r="G30" s="56">
         <v>1</v>
       </c>
       <c r="H30" s="3">
@@ -2170,6 +2253,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -2197,84 +2281,84 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="26" t="s">
-        <v>69</v>
+      <c r="B4" s="25" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
         <v>80</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2336,16 +2420,16 @@
       <c r="A4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>51</v>
       </c>
       <c r="H4">
@@ -2403,7 +2487,7 @@
         <f>'Robotics Assessment'!H22*calc!H13+'Robotics Assessment'!H23*calc!H14+'Robotics Assessment'!H24*calc!H15+'Robotics Assessment'!H25*calc!H16</f>
         <v>24</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <f>'Robotics Assessment'!H22*calc!H13+'Robotics Assessment'!H23*calc!H14+'Robotics Assessment'!H24*calc!H15+'Robotics Assessment'!H25*calc!H16</f>
         <v>24</v>
       </c>
@@ -2411,7 +2495,7 @@
         <f>'Robotics Assessment'!H22*calc!H13+'Robotics Assessment'!H23*calc!H14+'Robotics Assessment'!H24*calc!H15+'Robotics Assessment'!H25*calc!H16</f>
         <v>24</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H7">
@@ -2442,18 +2526,18 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <f>((D14-C14)/(D13-C13)*C5+(D17-C17)/(D16-C16)*C6+(D20-C20)/(D19-C19)*C7+(D23-C23)/(D22-C22)*C8)/6</f>
         <v>20.437134502923975</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <f>( (D27-C27)/(D26-C26)*D5+(D30-C30)/(D29-C29)*D6+(D33-C33)/(D32-C32)*D7+(D36-C36)/(D35-C35)*D8)/(SUM(D5:D8))</f>
         <v>0.27673578983653552</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <f>1-(( (D40-C40)/(D39-C39)*E5+(D43-C43)/(D42-C42)*E6+(D46-C46)/(D45-C45)*E7+(D49-C49)/(D48-C48)*E8  ))/(SUM(E5:E8))</f>
         <v>0.87319254703459792</v>
       </c>
@@ -2477,8 +2561,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="G11" s="4" t="s">
         <v>7</v>
       </c>
@@ -2487,7 +2571,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
@@ -2507,7 +2591,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
+      <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>55</v>
       </c>
@@ -2525,7 +2609,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="53"/>
+      <c r="A15" s="44"/>
       <c r="G15" s="4" t="s">
         <v>14</v>
       </c>
@@ -2534,7 +2618,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
+      <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>46</v>
       </c>
@@ -2552,7 +2636,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="53"/>
+      <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>55</v>
       </c>
@@ -2564,7 +2648,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
+      <c r="A18" s="44"/>
       <c r="G18" s="5" t="s">
         <v>30</v>
       </c>
@@ -2573,7 +2657,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
+      <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>56</v>
       </c>
@@ -2591,7 +2675,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
+      <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>55</v>
       </c>
@@ -2609,7 +2693,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="53"/>
+      <c r="A21" s="44"/>
       <c r="G21" s="6" t="s">
         <v>34</v>
       </c>
@@ -2618,7 +2702,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="53"/>
+      <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>47</v>
       </c>
@@ -2630,7 +2714,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="53"/>
+      <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -2646,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -2654,14 +2738,14 @@
         <v>0.99</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I25">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="44" t="s">
         <v>17</v>
       </c>
       <c r="B26" t="s">
@@ -2677,14 +2761,14 @@
         <v>0.95</v>
       </c>
       <c r="H26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I26">
         <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="53"/>
+      <c r="A27" s="44"/>
       <c r="B27" t="s">
         <v>59</v>
       </c>
@@ -2698,26 +2782,26 @@
         <v>0.9</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I27">
         <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="53"/>
+      <c r="A28" s="44"/>
       <c r="G28">
         <v>0.8</v>
       </c>
       <c r="H28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I28">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="53"/>
+      <c r="A29" s="44"/>
       <c r="B29" t="s">
         <v>46</v>
       </c>
@@ -2729,7 +2813,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="53"/>
+      <c r="A30" s="44"/>
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -2741,10 +2825,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="53"/>
+      <c r="A31" s="44"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="53"/>
+      <c r="A32" s="44"/>
       <c r="B32" t="s">
         <v>56</v>
       </c>
@@ -2756,7 +2840,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="53"/>
+      <c r="A33" s="44"/>
       <c r="B33" t="s">
         <v>59</v>
       </c>
@@ -2768,10 +2852,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="53"/>
+      <c r="A34" s="44"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="53"/>
+      <c r="A35" s="44"/>
       <c r="B35" t="s">
         <v>47</v>
       </c>
@@ -2783,7 +2867,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="53"/>
+      <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>59</v>
       </c>
@@ -2795,7 +2879,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="44" t="s">
         <v>18</v>
       </c>
       <c r="B39" t="s">
@@ -2809,7 +2893,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="53"/>
+      <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>59</v>
       </c>
@@ -2821,10 +2905,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="53"/>
+      <c r="A41" s="44"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="53"/>
+      <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>46</v>
       </c>
@@ -2836,7 +2920,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="53"/>
+      <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>59</v>
       </c>
@@ -2848,10 +2932,10 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="53"/>
+      <c r="A44" s="44"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="53"/>
+      <c r="A45" s="44"/>
       <c r="B45" t="s">
         <v>56</v>
       </c>
@@ -2863,7 +2947,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="53"/>
+      <c r="A46" s="44"/>
       <c r="B46" t="s">
         <v>59</v>
       </c>
@@ -2875,10 +2959,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="53"/>
+      <c r="A47" s="44"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="53"/>
+      <c r="A48" s="44"/>
       <c r="B48" t="s">
         <v>47</v>
       </c>
@@ -2890,7 +2974,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="53"/>
+      <c r="A49" s="44"/>
       <c r="B49" t="s">
         <v>59</v>
       </c>
